--- a/Classes/DataType.xlsx
+++ b/Classes/DataType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Registry Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13788"/>
   </bookViews>
   <sheets>
     <sheet name="DataType" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>string</t>
   </si>
@@ -98,21 +98,12 @@
     <t>class/data-type</t>
   </si>
   <si>
-    <t>class/data-type/integer, class/data-type/boolean, class/data-type/real-number, class/data-type/string, class/data-type/datetime, class/data-type/date</t>
-  </si>
-  <si>
     <t>data type</t>
   </si>
   <si>
     <t>Base concrete subclass of abstract data type; includes basic computer programming data types e.g. xml data types.</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>long integer</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t xml:space="preserve">Base concrete subclass of abstract data type; value consists of a list of items each with its own dataType, and a specified delimiter that separates items. </t>
   </si>
   <si>
-    <t>class/data-type/long-integer</t>
-  </si>
-  <si>
     <t>logical type; physical types might specify number of bytes, and value range</t>
   </si>
   <si>
@@ -204,6 +192,21 @@
   </si>
   <si>
     <t>URI</t>
+  </si>
+  <si>
+    <t>calendar date and time</t>
+  </si>
+  <si>
+    <t>class/data-type/integer</t>
+  </si>
+  <si>
+    <t>long class/data-type/integer</t>
+  </si>
+  <si>
+    <t>class/data-type/long-class/data-type/integer</t>
+  </si>
+  <si>
+    <t>class/data-type/class/data-type/integer, class/data-type/boolean, class/data-type/real-number, class/data-type/string, class/data-type/datetime, class/data-type/date</t>
   </si>
 </sst>
 </file>
@@ -562,73 +565,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B2, " ", "-"))</f>
         <v>class/data-type/array</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -641,7 +644,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B3, " ", "-"))</f>
         <v>class/data-type/blob</v>
@@ -650,13 +653,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D3, " ", "-"))</f>
@@ -669,16 +672,16 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B4, " ", "-"))</f>
         <v>class/data-type/boolean</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -695,19 +698,19 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B5, " ", "-"))</f>
         <v>class/data-type/data-object</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -720,23 +723,22 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B6, " ", "-"))</f>
-        <v>class/data-type/dictionary</v>
+        <v>class/data-type/date</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
+      <c r="F6" s="3" t="str">
+        <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D6, " ", "-"))</f>
+        <v>class/data-type/primitive-type</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -745,22 +747,24 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B7, " ", "-"))</f>
-        <v>class/data-type/double</v>
+        <v>class/data-type/datetime</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D7, " ", "-"))</f>
-        <v>class/data-type/real-number</v>
+        <v>class/data-type/primitive-type</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -769,22 +773,23 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B8, " ", "-"))</f>
-        <v>class/data-type/float</v>
+        <v>class/data-type/dictionary</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="str">
-        <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D8, " ", "-"))</f>
-        <v>class/data-type/real-number</v>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -793,51 +798,46 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B9, " ", "-"))</f>
-        <v>class/data-type/integer</v>
+        <v>class/data-type/double</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D9, " ", "-"))</f>
-        <v>class/data-type/primitive-type</v>
+        <v>class/data-type/real-number</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B10, " ", "-"))</f>
-        <v>class/data-type/list</v>
+        <v>class/data-type/float</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
+      <c r="F10" s="3" t="str">
+        <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D10, " ", "-"))</f>
+        <v>class/data-type/real-number</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -846,77 +846,77 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B11, " ", "-"))</f>
-        <v>class/data-type/list-string-pipe</v>
+        <v>class/data-type/geometry</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D11, " ", "-"))</f>
-        <v>class/data-type/list</v>
+        <v>class/data-type/blob</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B12, " ", "-"))</f>
-        <v>class/data-type/long-integer</v>
+        <v>class/data-type/class/data-type/integer</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D12, " ", "-"))</f>
-        <v>class/data-type/integer</v>
+        <v>class/data-type/primitive-type</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B13, " ", "-"))</f>
-        <v>class/data-type/primitive-type</v>
+        <v>class/data-type/list</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
@@ -927,78 +927,78 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B14, " ", "-"))</f>
-        <v>class/data-type/real-number</v>
+        <v>class/data-type/list-string-pipe</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D14, " ", "-"))</f>
-        <v>class/data-type/primitive-type</v>
+        <v>class/data-type/list</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B15, " ", "-"))</f>
-        <v>class/data-type/string</v>
+        <v>class/data-type/long-class/data-type/integer</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D15, " ", "-"))</f>
-        <v>class/data-type/primitive-type</v>
+        <v>class/data-type/class/data-type/integer</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B16, " ", "-"))</f>
-        <v>class/data-type/datetime</v>
+        <v>class/data-type/point-3-d-object</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D16, " ", "-"))</f>
-        <v>class/data-type/primitive-type</v>
+        <v>class/data-type/geometry</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1007,22 +1007,24 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B17, " ", "-"))</f>
-        <v>class/data-type/uri</v>
+        <v>class/data-type/point-object</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D17, " ", "-"))</f>
-        <v>class/data-type/string</v>
+        <v>class/data-type/geometry</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1031,22 +1033,25 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B18, " ", "-"))</f>
-        <v>class/data-type/url</v>
+        <v>class/data-type/primitive-type</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="str">
-        <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D18, " ", "-"))</f>
-        <v>class/data-type/string</v>
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1055,19 +1060,23 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B19, " ", "-"))</f>
-        <v>class/data-type/date</v>
+        <v>class/data-type/real-number</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D19, " ", "-"))</f>
         <v>class/data-type/primitive-type</v>
@@ -1075,54 +1084,56 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B20, " ", "-"))</f>
-        <v>class/data-type/string-255</v>
+        <v>class/data-type/string</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F20" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D20, " ", "-"))</f>
-        <v>class/data-type/string</v>
+        <v>class/data-type/primitive-type</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B21, " ", "-"))</f>
-        <v>class/data-type/point-object</v>
+        <v>class/data-type/string-255</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D21, " ", "-"))</f>
-        <v>class/data-type/geometry</v>
+        <v>class/data-type/string</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1131,26 +1142,24 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B22, " ", "-"))</f>
-        <v>class/data-type/geometry</v>
+        <v>class/data-type/term</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D22, " ", "-"))</f>
-        <v>class/data-type/blob</v>
+        <v>class/data-type/string</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1159,24 +1168,22 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B23, " ", "-"))</f>
-        <v>class/data-type/point-3-d-object</v>
+        <v>class/data-type/uri</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(D23, " ", "-"))</f>
-        <v>class/data-type/geometry</v>
+        <v>class/data-type/string</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1185,17 +1192,15 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>"class/data-type/" &amp; LOWER(SUBSTITUTE(B24, " ", "-"))</f>
-        <v>class/data-type/term</v>
+        <v>class/data-type/url</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,6 +1217,9 @@
       <c r="L24" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L24">
+    <sortCondition ref="B2:B24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>